--- a/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/add.xlsx
+++ b/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\21.03.2025\таня месяц с 21.02.2025 по 21.03.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA5DF6A-4F28-4232-A8B1-B8BDAAEF3606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54812D70-0E8D-4EA2-A881-DA1021A82667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Термонаклейка Девочка Ангел с хвостами</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +540,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
